--- a/medicine/Médecine vétérinaire/Bernard_Guillaume_(homme_politique)/Bernard_Guillaume_(homme_politique).xlsx
+++ b/medicine/Médecine vétérinaire/Bernard_Guillaume_(homme_politique)/Bernard_Guillaume_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Guillaume, né le  1er février 1949 à Uccle est un homme politique belge francophone, membre du Mouvement réformateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume est médecin vétérinaire (ULB et Cureghem, ULiège, 1972); administrateur du C.N.P.A. (1972-) ainsi que Vice-Président; président de la Chaîne Bleue Mondiale (1991-); co-auteur du Livre blanc de la protection animale.
 D'abord élu conseiller communal à Schaerbeek (1983-), il a été chef de groupe PRL au conseil communal et président du PRL de Schaerbeek (1983-2001). Il est échevin de l'Etat civil (1989-1995; 2001-) et y ajoute les compétences Seniors et Finances en 2006. De 1989 à 1995, il est député régional bruxellois.
